--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -934,7 +934,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,6 +1071,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4506,17 +4507,17 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="50" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4524,10 +4525,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,12 @@
     <t>Life expectancy at birth (years), 2019</t>
   </si>
   <si>
+    <t>Female life expectancy at birth (years), 2019</t>
+  </si>
+  <si>
     <t>Male life expectancy at birth (years), 2019</t>
   </si>
   <si>
-    <t>Female life expectancy at birth (years), 2019</t>
-  </si>
-  <si>
     <t>Total fertility (live births per woman), 2019</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>
@@ -1427,10 +1427,10 @@
         <v>61.3521</v>
       </c>
       <c r="D3" s="14">
+        <v>64.262749999999997</v>
+      </c>
+      <c r="E3" s="15">
         <v>58.607750000000003</v>
-      </c>
-      <c r="E3" s="15">
-        <v>64.262749999999997</v>
       </c>
       <c r="F3" s="14">
         <v>5.4178350000000002</v>
@@ -1459,10 +1459,10 @@
         <v>70.403475</v>
       </c>
       <c r="D4" s="14">
+        <v>73.228250000000003</v>
+      </c>
+      <c r="E4" s="15">
         <v>67.221500000000006</v>
-      </c>
-      <c r="E4" s="15">
-        <v>73.228250000000003</v>
       </c>
       <c r="F4" s="14">
         <v>2.8563125</v>
@@ -1491,10 +1491,10 @@
         <v>61.735574999999997</v>
       </c>
       <c r="D5" s="17">
+        <v>66.64725</v>
+      </c>
+      <c r="E5" s="18">
         <v>57.239249999999998</v>
-      </c>
-      <c r="E5" s="18">
-        <v>66.64725</v>
       </c>
       <c r="F5" s="19">
         <v>2.990075</v>
@@ -1523,10 +1523,10 @@
         <v>55.037875</v>
       </c>
       <c r="D6" s="17">
+        <v>58.299750000000003</v>
+      </c>
+      <c r="E6" s="18">
         <v>51.877499999999998</v>
-      </c>
-      <c r="E6" s="18">
-        <v>58.299750000000003</v>
       </c>
       <c r="F6" s="19">
         <v>3.1327924999999999</v>
@@ -1555,10 +1555,10 @@
         <v>64.5518</v>
       </c>
       <c r="D7" s="17">
+        <v>67.741500000000002</v>
+      </c>
+      <c r="E7" s="18">
         <v>61.347749999999998</v>
-      </c>
-      <c r="E7" s="18">
-        <v>67.741500000000002</v>
       </c>
       <c r="F7" s="19">
         <v>4.0683325000000004</v>
@@ -1587,10 +1587,10 @@
         <v>61.713225000000001</v>
       </c>
       <c r="D8" s="17">
+        <v>64.569000000000003</v>
+      </c>
+      <c r="E8" s="18">
         <v>58.579000000000001</v>
-      </c>
-      <c r="E8" s="18">
-        <v>64.569000000000003</v>
       </c>
       <c r="F8" s="19">
         <v>4.7820074999999997</v>
@@ -1619,10 +1619,10 @@
         <v>63.793225</v>
       </c>
       <c r="D9" s="17">
+        <v>66.630499999999998</v>
+      </c>
+      <c r="E9" s="18">
         <v>60.731000000000002</v>
-      </c>
-      <c r="E9" s="18">
-        <v>66.630499999999998</v>
       </c>
       <c r="F9" s="19">
         <v>3.3515225000000002</v>
@@ -1651,10 +1651,10 @@
         <v>64.378950000000003</v>
       </c>
       <c r="D10" s="17">
+        <v>67.969499999999996</v>
+      </c>
+      <c r="E10" s="18">
         <v>60.938749999999999</v>
-      </c>
-      <c r="E10" s="18">
-        <v>67.969499999999996</v>
       </c>
       <c r="F10" s="19">
         <v>2.3738450000000002</v>
@@ -1683,10 +1683,10 @@
         <v>64.384900000000002</v>
       </c>
       <c r="D11" s="14">
+        <v>67.566249999999997</v>
+      </c>
+      <c r="E11" s="15">
         <v>61.183250000000001</v>
-      </c>
-      <c r="E11" s="15">
-        <v>67.566249999999997</v>
       </c>
       <c r="F11" s="14">
         <v>4.4988925000000002</v>
@@ -1715,10 +1715,10 @@
         <v>61.999875000000003</v>
       </c>
       <c r="D12" s="17">
+        <v>63.344999999999999</v>
+      </c>
+      <c r="E12" s="18">
         <v>60.367750000000001</v>
-      </c>
-      <c r="E12" s="18">
-        <v>63.344999999999999</v>
       </c>
       <c r="F12" s="19">
         <v>3.4902600000000001</v>
@@ -1747,10 +1747,10 @@
         <v>62.935099999999998</v>
       </c>
       <c r="D13" s="24">
+        <v>66.025975000000003</v>
+      </c>
+      <c r="E13" s="25">
         <v>59.809350000000002</v>
-      </c>
-      <c r="E13" s="25">
-        <v>66.025975000000003</v>
       </c>
       <c r="F13" s="24">
         <v>3.6961875000000002</v>
@@ -1779,10 +1779,10 @@
         <v>61.646925000000003</v>
       </c>
       <c r="D14" s="17">
+        <v>63.427</v>
+      </c>
+      <c r="E14" s="18">
         <v>59.835500000000003</v>
-      </c>
-      <c r="E14" s="18">
-        <v>63.427</v>
       </c>
       <c r="F14" s="19">
         <v>5.3023724999999997</v>
@@ -1811,10 +1811,10 @@
         <v>59.496524999999998</v>
       </c>
       <c r="D15" s="17">
+        <v>60.71275</v>
+      </c>
+      <c r="E15" s="18">
         <v>58.28425</v>
-      </c>
-      <c r="E15" s="18">
-        <v>60.71275</v>
       </c>
       <c r="F15" s="19">
         <v>4.4998674999999997</v>
@@ -1843,10 +1843,10 @@
         <v>53.742975000000001</v>
       </c>
       <c r="D16" s="17">
+        <v>56.111750000000001</v>
+      </c>
+      <c r="E16" s="18">
         <v>51.418750000000003</v>
-      </c>
-      <c r="E16" s="18">
-        <v>56.111750000000001</v>
       </c>
       <c r="F16" s="19">
         <v>4.6495499999999996</v>
@@ -1875,10 +1875,10 @@
         <v>54.25385</v>
       </c>
       <c r="D17" s="14">
+        <v>55.669499999999999</v>
+      </c>
+      <c r="E17" s="15">
         <v>52.860999999999997</v>
-      </c>
-      <c r="E17" s="15">
-        <v>55.669499999999999</v>
       </c>
       <c r="F17" s="14">
         <v>5.6443624999999997</v>
@@ -1907,10 +1907,10 @@
         <v>64.871049999999997</v>
       </c>
       <c r="D18" s="14">
+        <v>66.377250000000004</v>
+      </c>
+      <c r="E18" s="15">
         <v>63.326500000000003</v>
-      </c>
-      <c r="E18" s="15">
-        <v>66.377250000000004</v>
       </c>
       <c r="F18" s="14">
         <v>4.3748500000000003</v>
@@ -1939,10 +1939,10 @@
         <v>60.826000000000001</v>
       </c>
       <c r="D19" s="14">
+        <v>62.384500000000003</v>
+      </c>
+      <c r="E19" s="15">
         <v>59.290999999999997</v>
-      </c>
-      <c r="E19" s="15">
-        <v>62.384500000000003</v>
       </c>
       <c r="F19" s="14">
         <v>5.8309674999999999</v>
@@ -1971,10 +1971,10 @@
         <v>58.772399999999998</v>
       </c>
       <c r="D20" s="14">
+        <v>59.89725</v>
+      </c>
+      <c r="E20" s="15">
         <v>57.832500000000003</v>
-      </c>
-      <c r="E20" s="15">
-        <v>59.89725</v>
       </c>
       <c r="F20" s="14">
         <v>4.4232300000000002</v>
@@ -2003,10 +2003,10 @@
         <v>66.830275</v>
       </c>
       <c r="D21" s="14">
+        <v>69.174250000000001</v>
+      </c>
+      <c r="E21" s="15">
         <v>64.618750000000006</v>
-      </c>
-      <c r="E21" s="15">
-        <v>69.174250000000001</v>
       </c>
       <c r="F21" s="14">
         <v>3.9653700000000001</v>
@@ -2035,10 +2035,10 @@
         <v>70.501050000000006</v>
       </c>
       <c r="D22" s="17">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="E22" s="18">
         <v>68.096000000000004</v>
-      </c>
-      <c r="E22" s="18">
-        <v>72.930000000000007</v>
       </c>
       <c r="F22" s="19">
         <v>4.2744875000000002</v>
@@ -2067,10 +2067,10 @@
         <v>61.215672222222302</v>
       </c>
       <c r="D23" s="24">
+        <v>62.964916666666703</v>
+      </c>
+      <c r="E23" s="25">
         <v>59.507138888888903</v>
-      </c>
-      <c r="E23" s="25">
-        <v>62.964916666666703</v>
       </c>
       <c r="F23" s="24">
         <v>4.7738952777777799</v>
@@ -2099,10 +2099,10 @@
         <v>64.327524999999994</v>
       </c>
       <c r="D24" s="17">
+        <v>66.134500000000003</v>
+      </c>
+      <c r="E24" s="18">
         <v>62.588500000000003</v>
-      </c>
-      <c r="E24" s="18">
-        <v>66.134500000000003</v>
       </c>
       <c r="F24" s="19">
         <v>4.1287500000000001</v>
@@ -2131,10 +2131,10 @@
         <v>67.944175000000001</v>
       </c>
       <c r="D25" s="17">
+        <v>70.287999999999997</v>
+      </c>
+      <c r="E25" s="18">
         <v>65.86</v>
-      </c>
-      <c r="E25" s="18">
-        <v>70.287999999999997</v>
       </c>
       <c r="F25" s="19">
         <v>2.65768</v>
@@ -2163,10 +2163,10 @@
         <v>66.424149999999997</v>
       </c>
       <c r="D26" s="17">
+        <v>68.667500000000004</v>
+      </c>
+      <c r="E26" s="18">
         <v>64.254750000000001</v>
-      </c>
-      <c r="E26" s="18">
-        <v>68.667500000000004</v>
       </c>
       <c r="F26" s="19">
         <v>4.0228524999999999</v>
@@ -2195,10 +2195,10 @@
         <v>66.6374</v>
       </c>
       <c r="D27" s="17">
+        <v>68.579750000000004</v>
+      </c>
+      <c r="E27" s="18">
         <v>64.730999999999995</v>
-      </c>
-      <c r="E27" s="18">
-        <v>68.579750000000004</v>
       </c>
       <c r="F27" s="19">
         <v>4.1368200000000002</v>
@@ -2227,10 +2227,10 @@
         <v>67.106525000000005</v>
       </c>
       <c r="D28" s="17">
+        <v>69.45</v>
+      </c>
+      <c r="E28" s="18">
         <v>64.724999999999994</v>
-      </c>
-      <c r="E28" s="18">
-        <v>69.45</v>
       </c>
       <c r="F28" s="19">
         <v>3.36497</v>
@@ -2259,10 +2259,10 @@
         <v>67.075225000000003</v>
       </c>
       <c r="D29" s="17">
+        <v>68.722999999999999</v>
+      </c>
+      <c r="E29" s="18">
         <v>65.445250000000001</v>
-      </c>
-      <c r="E29" s="18">
-        <v>68.722999999999999</v>
       </c>
       <c r="F29" s="19">
         <v>4.0219674999999997</v>
@@ -2291,10 +2291,10 @@
         <v>74.951674999999994</v>
       </c>
       <c r="D30" s="17">
+        <v>78.406999999999996</v>
+      </c>
+      <c r="E30" s="18">
         <v>71.633499999999998</v>
-      </c>
-      <c r="E30" s="18">
-        <v>78.406999999999996</v>
       </c>
       <c r="F30" s="19">
         <v>1.36063</v>
@@ -2323,10 +2323,10 @@
         <v>69.205200000000005</v>
       </c>
       <c r="D31" s="17">
+        <v>71.340500000000006</v>
+      </c>
+      <c r="E31" s="18">
         <v>66.972499999999997</v>
-      </c>
-      <c r="E31" s="18">
-        <v>71.340500000000006</v>
       </c>
       <c r="F31" s="19">
         <v>4.0495274999999999</v>
@@ -2355,10 +2355,10 @@
         <v>73.363924999999995</v>
       </c>
       <c r="D32" s="17">
+        <v>77.352500000000006</v>
+      </c>
+      <c r="E32" s="18">
         <v>69.855249999999998</v>
-      </c>
-      <c r="E32" s="18">
-        <v>77.352500000000006</v>
       </c>
       <c r="F32" s="19">
         <v>2.4789824999999999</v>
@@ -2387,10 +2387,10 @@
         <v>57.549325000000003</v>
       </c>
       <c r="D33" s="17">
+        <v>59.287500000000001</v>
+      </c>
+      <c r="E33" s="18">
         <v>55.875999999999998</v>
-      </c>
-      <c r="E33" s="18">
-        <v>59.287500000000001</v>
       </c>
       <c r="F33" s="19">
         <v>5.9737650000000002</v>
@@ -2419,10 +2419,10 @@
         <v>57.833725000000001</v>
       </c>
       <c r="D34" s="14">
+        <v>59.3675</v>
+      </c>
+      <c r="E34" s="15">
         <v>56.341749999999998</v>
-      </c>
-      <c r="E34" s="15">
-        <v>59.3675</v>
       </c>
       <c r="F34" s="14">
         <v>4.6126825</v>
@@ -2451,10 +2451,10 @@
         <v>65.304000000000002</v>
       </c>
       <c r="D35" s="17">
+        <v>67.193749999999994</v>
+      </c>
+      <c r="E35" s="18">
         <v>63.447749999999999</v>
-      </c>
-      <c r="E35" s="18">
-        <v>67.193749999999994</v>
       </c>
       <c r="F35" s="19">
         <v>4.3407150000000003</v>
@@ -2483,10 +2483,10 @@
         <v>65.960925000000003</v>
       </c>
       <c r="D36" s="17">
+        <v>67.606499999999997</v>
+      </c>
+      <c r="E36" s="18">
         <v>64.256749999999997</v>
-      </c>
-      <c r="E36" s="18">
-        <v>67.606499999999997</v>
       </c>
       <c r="F36" s="19">
         <v>4.8294800000000002</v>
@@ -2515,10 +2515,10 @@
         <v>63.7029</v>
       </c>
       <c r="D37" s="17">
+        <v>66.065749999999994</v>
+      </c>
+      <c r="E37" s="18">
         <v>61.218249999999998</v>
-      </c>
-      <c r="E37" s="18">
-        <v>66.065749999999994</v>
       </c>
       <c r="F37" s="19">
         <v>4.7838750000000001</v>
@@ -2547,10 +2547,10 @@
         <v>66.241905357142898</v>
       </c>
       <c r="D38" s="24">
+        <v>68.4616964285714</v>
+      </c>
+      <c r="E38" s="25">
         <v>64.086160714285697</v>
-      </c>
-      <c r="E38" s="25">
-        <v>68.4616964285714</v>
       </c>
       <c r="F38" s="24">
         <v>3.91162125</v>
@@ -2579,10 +2579,10 @@
         <v>76.912700000000001</v>
       </c>
       <c r="D39" s="14">
+        <v>78.173749999999998</v>
+      </c>
+      <c r="E39" s="15">
         <v>75.695999999999998</v>
-      </c>
-      <c r="E39" s="15">
-        <v>78.173749999999998</v>
       </c>
       <c r="F39" s="14">
         <v>3.0682200000000002</v>
@@ -2611,10 +2611,10 @@
         <v>72.014049999999997</v>
       </c>
       <c r="D40" s="17">
+        <v>74.385000000000005</v>
+      </c>
+      <c r="E40" s="18">
         <v>69.760499999999993</v>
-      </c>
-      <c r="E40" s="18">
-        <v>74.385000000000005</v>
       </c>
       <c r="F40" s="19">
         <v>3.2920275000000001</v>
@@ -2643,10 +2643,10 @@
         <v>72.984800000000007</v>
       </c>
       <c r="D41" s="14">
+        <v>75.98075</v>
+      </c>
+      <c r="E41" s="15">
         <v>70.200999999999993</v>
-      </c>
-      <c r="E41" s="15">
-        <v>75.98075</v>
       </c>
       <c r="F41" s="14">
         <v>2.1916125000000002</v>
@@ -2675,10 +2675,10 @@
         <v>65.014099999999999</v>
       </c>
       <c r="D42" s="14">
+        <v>66.544749999999993</v>
+      </c>
+      <c r="E42" s="15">
         <v>63.453749999999999</v>
-      </c>
-      <c r="E42" s="15">
-        <v>66.544749999999993</v>
       </c>
       <c r="F42" s="14">
         <v>4.4972775</v>
@@ -2707,10 +2707,10 @@
         <v>76.715199999999996</v>
       </c>
       <c r="D43" s="17">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="E43" s="18">
         <v>75.474249999999998</v>
-      </c>
-      <c r="E43" s="18">
-        <v>77.909000000000006</v>
       </c>
       <c r="F43" s="19">
         <v>2.3674075000000001</v>
@@ -2739,10 +2739,10 @@
         <v>76.699749999999995</v>
       </c>
       <c r="D44" s="17">
+        <v>78.721249999999998</v>
+      </c>
+      <c r="E44" s="18">
         <v>74.686750000000004</v>
-      </c>
-      <c r="E44" s="18">
-        <v>78.721249999999998</v>
       </c>
       <c r="F44" s="19">
         <v>2.1830775</v>
@@ -2771,10 +2771,10 @@
         <v>73.390100000000004</v>
       </c>
       <c r="D45" s="24">
+        <v>75.285749999999993</v>
+      </c>
+      <c r="E45" s="25">
         <v>71.545375000000007</v>
-      </c>
-      <c r="E45" s="25">
-        <v>75.285749999999993</v>
       </c>
       <c r="F45" s="24">
         <v>2.9332704166666699</v>
@@ -2803,10 +2803,10 @@
         <v>61.71875</v>
       </c>
       <c r="D46" s="17">
+        <v>63.274749999999997</v>
+      </c>
+      <c r="E46" s="18">
         <v>60.141750000000002</v>
-      </c>
-      <c r="E46" s="18">
-        <v>63.274749999999997</v>
       </c>
       <c r="F46" s="19">
         <v>4.7624000000000004</v>
@@ -2835,10 +2835,10 @@
         <v>61.5762</v>
       </c>
       <c r="D47" s="17">
+        <v>62.298000000000002</v>
+      </c>
+      <c r="E47" s="18">
         <v>60.733499999999999</v>
-      </c>
-      <c r="E47" s="18">
-        <v>62.298000000000002</v>
       </c>
       <c r="F47" s="19">
         <v>5.1075425000000001</v>
@@ -2867,10 +2867,10 @@
         <v>73.047200000000004</v>
       </c>
       <c r="D48" s="17">
+        <v>76.209500000000006</v>
+      </c>
+      <c r="E48" s="18">
         <v>69.616</v>
-      </c>
-      <c r="E48" s="18">
-        <v>76.209500000000006</v>
       </c>
       <c r="F48" s="19">
         <v>2.2277624999999999</v>
@@ -2899,10 +2899,10 @@
         <v>58.002200000000002</v>
       </c>
       <c r="D49" s="17">
+        <v>59.33775</v>
+      </c>
+      <c r="E49" s="18">
         <v>56.815249999999999</v>
-      </c>
-      <c r="E49" s="18">
-        <v>59.33775</v>
       </c>
       <c r="F49" s="19">
         <v>4.5986649999999996</v>
@@ -2931,10 +2931,10 @@
         <v>61.91375</v>
       </c>
       <c r="D50" s="17">
+        <v>63.354750000000003</v>
+      </c>
+      <c r="E50" s="18">
         <v>60.515999999999998</v>
-      </c>
-      <c r="E50" s="18">
-        <v>63.354750000000003</v>
       </c>
       <c r="F50" s="19">
         <v>5.1726124999999996</v>
@@ -2963,10 +2963,10 @@
         <v>64.187475000000006</v>
       </c>
       <c r="D51" s="14">
+        <v>65.302499999999995</v>
+      </c>
+      <c r="E51" s="15">
         <v>63.091500000000003</v>
-      </c>
-      <c r="E51" s="15">
-        <v>65.302499999999995</v>
       </c>
       <c r="F51" s="14">
         <v>3.8075874999999999</v>
@@ -2995,10 +2995,10 @@
         <v>61.919024999999998</v>
       </c>
       <c r="D52" s="17">
+        <v>62.436500000000002</v>
+      </c>
+      <c r="E52" s="18">
         <v>61.158499999999997</v>
-      </c>
-      <c r="E52" s="18">
-        <v>62.436500000000002</v>
       </c>
       <c r="F52" s="19">
         <v>4.6204400000000003</v>
@@ -3027,10 +3027,10 @@
         <v>58.375250000000001</v>
       </c>
       <c r="D53" s="17">
+        <v>60.168500000000002</v>
+      </c>
+      <c r="E53" s="18">
         <v>56.453749999999999</v>
-      </c>
-      <c r="E53" s="18">
-        <v>60.168500000000002</v>
       </c>
       <c r="F53" s="19">
         <v>4.3941224999999999</v>
@@ -3059,10 +3059,10 @@
         <v>64.418175000000005</v>
       </c>
       <c r="D54" s="17">
+        <v>65.758499999999998</v>
+      </c>
+      <c r="E54" s="18">
         <v>63.069749999999999</v>
-      </c>
-      <c r="E54" s="18">
-        <v>65.758499999999998</v>
       </c>
       <c r="F54" s="19">
         <v>4.2321175000000002</v>
@@ -3091,10 +3091,10 @@
         <v>59.436300000000003</v>
       </c>
       <c r="D55" s="17">
+        <v>60.220500000000001</v>
+      </c>
+      <c r="E55" s="18">
         <v>58.655000000000001</v>
-      </c>
-      <c r="E55" s="18">
-        <v>60.220500000000001</v>
       </c>
       <c r="F55" s="19">
         <v>5.7921525000000003</v>
@@ -3123,10 +3123,10 @@
         <v>62.571674999999999</v>
       </c>
       <c r="D56" s="17">
+        <v>63.757750000000001</v>
+      </c>
+      <c r="E56" s="18">
         <v>61.448</v>
-      </c>
-      <c r="E56" s="18">
-        <v>63.757750000000001</v>
       </c>
       <c r="F56" s="19">
         <v>6.828945</v>
@@ -3155,10 +3155,10 @@
         <v>54.827550000000002</v>
       </c>
       <c r="D57" s="14">
+        <v>55.759749999999997</v>
+      </c>
+      <c r="E57" s="15">
         <v>53.923250000000003</v>
-      </c>
-      <c r="E57" s="15">
-        <v>55.759749999999997</v>
       </c>
       <c r="F57" s="14">
         <v>5.3194100000000004</v>
@@ -3187,10 +3187,10 @@
         <v>67.979849999999999</v>
       </c>
       <c r="D58" s="17">
+        <v>69.978999999999999</v>
+      </c>
+      <c r="E58" s="18">
         <v>65.765500000000003</v>
-      </c>
-      <c r="E58" s="18">
-        <v>69.978999999999999</v>
       </c>
       <c r="F58" s="19">
         <v>4.5460475000000002</v>
@@ -3219,10 +3219,10 @@
         <v>54.841025000000002</v>
       </c>
       <c r="D59" s="17">
+        <v>55.602249999999998</v>
+      </c>
+      <c r="E59" s="18">
         <v>54.037750000000003</v>
-      </c>
-      <c r="E59" s="18">
-        <v>55.602249999999998</v>
       </c>
       <c r="F59" s="19">
         <v>4.1636600000000001</v>
@@ -3251,10 +3251,10 @@
         <v>60.96725</v>
       </c>
       <c r="D60" s="14">
+        <v>61.844499999999996</v>
+      </c>
+      <c r="E60" s="15">
         <v>60.075749999999999</v>
-      </c>
-      <c r="E60" s="15">
-        <v>61.844499999999996</v>
       </c>
       <c r="F60" s="14">
         <v>4.2512575000000004</v>
@@ -3283,10 +3283,10 @@
         <v>61.718778333333397</v>
       </c>
       <c r="D61" s="24">
+        <v>63.020299999999999</v>
+      </c>
+      <c r="E61" s="25">
         <v>60.366750000000003</v>
-      </c>
-      <c r="E61" s="25">
-        <v>63.020299999999999</v>
       </c>
       <c r="F61" s="24">
         <v>4.6549814999999999</v>
@@ -3315,10 +3315,10 @@
         <v>64.329648148148195</v>
       </c>
       <c r="D62" s="28">
+        <v>66.341236111111101</v>
+      </c>
+      <c r="E62" s="29">
         <v>62.326620370370399</v>
-      </c>
-      <c r="E62" s="29">
-        <v>66.341236111111101</v>
       </c>
       <c r="F62" s="28">
         <v>4.1132217592592601</v>
@@ -3347,10 +3347,10 @@
         <v>75.905175968992296</v>
       </c>
       <c r="D63" s="28">
+        <v>78.505864341085299</v>
+      </c>
+      <c r="E63" s="29">
         <v>73.338455426356603</v>
-      </c>
-      <c r="E63" s="29">
-        <v>78.505864341085299</v>
       </c>
       <c r="F63" s="28">
         <v>2.1034584302325601</v>
@@ -3379,10 +3379,10 @@
         <v>74.955451612903303</v>
       </c>
       <c r="D64" s="32">
+        <v>77.700177419354901</v>
+      </c>
+      <c r="E64" s="33">
         <v>72.2553870967742</v>
-      </c>
-      <c r="E64" s="33">
-        <v>77.700177419354901</v>
       </c>
       <c r="F64" s="32">
         <v>2.1101602419354801</v>
@@ -3411,10 +3411,10 @@
         <v>72.016889166666701</v>
       </c>
       <c r="D65" s="35">
+        <v>74.533891666666705</v>
+      </c>
+      <c r="E65" s="33">
         <v>69.613325000000003</v>
-      </c>
-      <c r="E65" s="33">
-        <v>74.533891666666705</v>
       </c>
       <c r="F65" s="35">
         <v>2.5466877499999998</v>
@@ -3443,10 +3443,10 @@
         <v>72.489446448087406</v>
       </c>
       <c r="D66" s="32">
+        <v>74.916301912568301</v>
+      </c>
+      <c r="E66" s="33">
         <v>70.089061475409906</v>
-      </c>
-      <c r="E66" s="33">
-        <v>74.916301912568301</v>
       </c>
       <c r="F66" s="32">
         <v>2.6965033469945401</v>
@@ -3475,10 +3475,10 @@
         <v>66.687414285714297</v>
       </c>
       <c r="D67" s="37">
+        <v>69.128011904761905</v>
+      </c>
+      <c r="E67" s="38">
         <v>64.310500000000005</v>
-      </c>
-      <c r="E67" s="38">
-        <v>69.128011904761905</v>
       </c>
       <c r="F67" s="37">
         <v>3.7699120238095198</v>
@@ -3507,10 +3507,10 @@
         <v>63.251607999999997</v>
       </c>
       <c r="D68" s="35">
+        <v>64.809190000000001</v>
+      </c>
+      <c r="E68" s="33">
         <v>61.707940000000001</v>
-      </c>
-      <c r="E68" s="33">
-        <v>64.809190000000001</v>
       </c>
       <c r="F68" s="35">
         <v>4.3725567999999999</v>
@@ -3539,10 +3539,10 @@
         <v>64.242699999999999</v>
       </c>
       <c r="D69" s="35">
+        <v>66.209541666666695</v>
+      </c>
+      <c r="E69" s="33">
         <v>62.224958333333397</v>
-      </c>
-      <c r="E69" s="33">
-        <v>66.209541666666695</v>
       </c>
       <c r="F69" s="35">
         <v>4.4904845833333296</v>
@@ -3571,10 +3571,10 @@
         <v>61.954395454545498</v>
       </c>
       <c r="D70" s="35">
+        <v>63.844318181818203</v>
+      </c>
+      <c r="E70" s="33">
         <v>60.104045454545499</v>
-      </c>
-      <c r="E70" s="33">
-        <v>63.844318181818203</v>
       </c>
       <c r="F70" s="35">
         <v>4.7665836363636398</v>
@@ -3603,10 +3603,10 @@
         <v>61.718778333333397</v>
       </c>
       <c r="D71" s="35">
+        <v>63.020299999999999</v>
+      </c>
+      <c r="E71" s="33">
         <v>60.366750000000003</v>
-      </c>
-      <c r="E71" s="33">
-        <v>63.020299999999999</v>
       </c>
       <c r="F71" s="35">
         <v>4.6549814999999999</v>
@@ -3635,10 +3635,10 @@
         <v>64.062775000000002</v>
       </c>
       <c r="D72" s="35">
+        <v>66.112468750000005</v>
+      </c>
+      <c r="E72" s="33">
         <v>62.056812499999999</v>
-      </c>
-      <c r="E72" s="33">
-        <v>66.112468750000005</v>
       </c>
       <c r="F72" s="35">
         <v>4.2366700000000002</v>
@@ -3667,10 +3667,10 @@
         <v>64.741017187500006</v>
       </c>
       <c r="D73" s="35">
+        <v>67.554234374999993</v>
+      </c>
+      <c r="E73" s="33">
         <v>61.947734375000003</v>
-      </c>
-      <c r="E73" s="33">
-        <v>67.554234374999993</v>
       </c>
       <c r="F73" s="35">
         <v>3.7257907812500002</v>
@@ -3699,10 +3699,10 @@
         <v>73.665310000000005</v>
       </c>
       <c r="D74" s="32">
+        <v>75.465900000000005</v>
+      </c>
+      <c r="E74" s="33">
         <v>71.902349999999998</v>
-      </c>
-      <c r="E74" s="33">
-        <v>75.465900000000005</v>
       </c>
       <c r="F74" s="32">
         <v>2.8615189999999999</v>
@@ -3731,10 +3731,10 @@
         <v>73.687677500000007</v>
       </c>
       <c r="D75" s="37">
+        <v>76.358199999999997</v>
+      </c>
+      <c r="E75" s="38">
         <v>71.077500000000001</v>
-      </c>
-      <c r="E75" s="38">
-        <v>76.358199999999997</v>
       </c>
       <c r="F75" s="37">
         <v>2.05760225</v>
@@ -3763,10 +3763,10 @@
         <v>75.108331250000006</v>
       </c>
       <c r="D76" s="35">
+        <v>78.185395833333402</v>
+      </c>
+      <c r="E76" s="33">
         <v>72.083624999999998</v>
-      </c>
-      <c r="E76" s="33">
-        <v>78.185395833333402</v>
       </c>
       <c r="F76" s="35">
         <v>2.1755687500000001</v>
@@ -3795,10 +3795,10 @@
         <v>80.328400000000002</v>
       </c>
       <c r="D77" s="32">
+        <v>83.146749999999997</v>
+      </c>
+      <c r="E77" s="33">
         <v>77.428537037037103</v>
-      </c>
-      <c r="E77" s="33">
-        <v>83.146749999999997</v>
       </c>
       <c r="F77" s="32">
         <v>1.5617745370370399</v>
@@ -3827,10 +3827,10 @@
         <v>63.62811</v>
       </c>
       <c r="D78" s="37">
+        <v>65.435566666666702</v>
+      </c>
+      <c r="E78" s="38">
         <v>61.848350000000003</v>
-      </c>
-      <c r="E78" s="38">
-        <v>65.435566666666702</v>
       </c>
       <c r="F78" s="37">
         <v>4.3173244999999998</v>
@@ -3859,10 +3859,10 @@
         <v>73.250816304347794</v>
       </c>
       <c r="D79" s="35">
+        <v>75.743304347826097</v>
+      </c>
+      <c r="E79" s="33">
         <v>70.912184782608705</v>
-      </c>
-      <c r="E79" s="33">
-        <v>75.743304347826097</v>
       </c>
       <c r="F79" s="35">
         <v>2.4668397826086998</v>
@@ -3891,10 +3891,10 @@
         <v>64.599470512820503</v>
       </c>
       <c r="D80" s="35">
+        <v>66.689570512820495</v>
+      </c>
+      <c r="E80" s="33">
         <v>62.5105705128205</v>
-      </c>
-      <c r="E80" s="33">
-        <v>66.689570512820495</v>
       </c>
       <c r="F80" s="35">
         <v>4.0347207051282101</v>
@@ -3923,10 +3923,10 @@
         <v>76.4811219339622</v>
       </c>
       <c r="D81" s="32">
+        <v>79.105287735849103</v>
+      </c>
+      <c r="E81" s="33">
         <v>73.864910377358498</v>
-      </c>
-      <c r="E81" s="33">
-        <v>79.105287735849103</v>
       </c>
       <c r="F81" s="32">
         <v>2.0246115330188701</v>
@@ -3955,10 +3955,10 @@
         <v>61.586319565217401</v>
       </c>
       <c r="D82" s="37">
+        <v>63.2421630434783</v>
+      </c>
+      <c r="E82" s="38">
         <v>59.902967391304401</v>
-      </c>
-      <c r="E82" s="38">
-        <v>63.2421630434783</v>
       </c>
       <c r="F82" s="37">
         <v>4.8166368478260901</v>
@@ -3987,10 +3987,10 @@
         <v>68.395158333333299</v>
       </c>
       <c r="D83" s="35">
+        <v>71.293374999999997</v>
+      </c>
+      <c r="E83" s="33">
         <v>65.653208333333296</v>
-      </c>
-      <c r="E83" s="33">
-        <v>71.293374999999997</v>
       </c>
       <c r="F83" s="35">
         <v>3.1842979166666701</v>
@@ -4019,10 +4019,10 @@
         <v>65.732040217391301</v>
       </c>
       <c r="D84" s="35">
+        <v>67.792043478260894</v>
+      </c>
+      <c r="E84" s="33">
         <v>63.6885652173913</v>
-      </c>
-      <c r="E84" s="33">
-        <v>67.792043478260894</v>
       </c>
       <c r="F84" s="35">
         <v>3.8404270652173902</v>
@@ -4051,10 +4051,10 @@
         <v>71.048050961538493</v>
       </c>
       <c r="D85" s="35">
+        <v>73.746826923076895</v>
+      </c>
+      <c r="E85" s="33">
         <v>68.381259615384593</v>
-      </c>
-      <c r="E85" s="33">
-        <v>73.746826923076895</v>
       </c>
       <c r="F85" s="35">
         <v>2.6185914423076899</v>
@@ -4083,10 +4083,10 @@
         <v>66.193854166666696</v>
       </c>
       <c r="D86" s="35">
+        <v>68.813416666666697</v>
+      </c>
+      <c r="E86" s="33">
         <v>63.590583333333299</v>
-      </c>
-      <c r="E86" s="33">
-        <v>68.813416666666697</v>
       </c>
       <c r="F86" s="35">
         <v>3.1936487499999999</v>
@@ -4115,10 +4115,10 @@
         <v>74.849249444444496</v>
       </c>
       <c r="D87" s="35">
+        <v>77.5965611111111</v>
+      </c>
+      <c r="E87" s="33">
         <v>72.156949999999995</v>
-      </c>
-      <c r="E87" s="33">
-        <v>77.5965611111111</v>
       </c>
       <c r="F87" s="35">
         <v>2.1348887777777801</v>
@@ -4147,10 +4147,10 @@
         <v>79.893459259259302</v>
       </c>
       <c r="D88" s="32">
+        <v>82.333203703703703</v>
+      </c>
+      <c r="E88" s="33">
         <v>77.467680555555603</v>
-      </c>
-      <c r="E88" s="33">
-        <v>82.333203703703703</v>
       </c>
       <c r="F88" s="32">
         <v>1.7023442592592599</v>
@@ -4179,10 +4179,10 @@
         <v>62.445654545454602</v>
       </c>
       <c r="D89" s="37">
+        <v>64.286545454545504</v>
+      </c>
+      <c r="E89" s="38">
         <v>60.593909090909101</v>
-      </c>
-      <c r="E89" s="38">
-        <v>64.286545454545504</v>
       </c>
       <c r="F89" s="37">
         <v>4.6523724242424302</v>
@@ -4211,10 +4211,10 @@
         <v>69.017184615384593</v>
       </c>
       <c r="D90" s="35">
+        <v>70.993923076923096</v>
+      </c>
+      <c r="E90" s="33">
         <v>67.075711538461604</v>
-      </c>
-      <c r="E90" s="33">
-        <v>70.993923076923096</v>
       </c>
       <c r="F90" s="35">
         <v>3.0442853846153901</v>
@@ -4243,10 +4243,10 @@
         <v>69.094437499999998</v>
       </c>
       <c r="D91" s="35">
+        <v>71.867000000000004</v>
+      </c>
+      <c r="E91" s="33">
         <v>66.373833333333394</v>
-      </c>
-      <c r="E91" s="33">
-        <v>71.867000000000004</v>
       </c>
       <c r="F91" s="35">
         <v>3.1441224999999999</v>
@@ -4275,10 +4275,10 @@
         <v>73.016607692307701</v>
       </c>
       <c r="D92" s="35">
+        <v>75.182201923076903</v>
+      </c>
+      <c r="E92" s="33">
         <v>70.966134615384604</v>
-      </c>
-      <c r="E92" s="33">
-        <v>75.182201923076903</v>
       </c>
       <c r="F92" s="35">
         <v>2.5213634615384599</v>
@@ -4307,10 +4307,10 @@
         <v>61.795040624999999</v>
       </c>
       <c r="D93" s="35">
+        <v>63.979125000000003</v>
+      </c>
+      <c r="E93" s="33">
         <v>59.590765625000003</v>
-      </c>
-      <c r="E93" s="33">
-        <v>63.979125000000003</v>
       </c>
       <c r="F93" s="35">
         <v>4.4965309375000002</v>
@@ -4339,10 +4339,10 @@
         <v>71.523690625</v>
       </c>
       <c r="D94" s="32">
+        <v>74.193453125000005</v>
+      </c>
+      <c r="E94" s="33">
         <v>68.870687500000003</v>
-      </c>
-      <c r="E94" s="33">
-        <v>74.193453125000005</v>
       </c>
       <c r="F94" s="32">
         <v>2.4834675000000002</v>
@@ -4371,10 +4371,10 @@
         <v>62.431675862069</v>
       </c>
       <c r="D95" s="37">
+        <v>64.271698275862093</v>
+      </c>
+      <c r="E95" s="38">
         <v>60.606620689655202</v>
-      </c>
-      <c r="E95" s="38">
-        <v>64.271698275862093</v>
       </c>
       <c r="F95" s="37">
         <v>4.3569368965517201</v>
@@ -4403,10 +4403,10 @@
         <v>71.368905357142907</v>
       </c>
       <c r="D96" s="35">
+        <v>73.6905</v>
+      </c>
+      <c r="E96" s="33">
         <v>69.086517857142894</v>
-      </c>
-      <c r="E96" s="33">
-        <v>73.6905</v>
       </c>
       <c r="F96" s="35">
         <v>2.7324489285714302</v>
@@ -4435,10 +4435,10 @@
         <v>62.582098076923103</v>
       </c>
       <c r="D97" s="40">
+        <v>64.693634615384596</v>
+      </c>
+      <c r="E97" s="41">
         <v>60.5592884615385</v>
-      </c>
-      <c r="E97" s="41">
-        <v>64.693634615384596</v>
       </c>
       <c r="F97" s="40">
         <v>4.4499417307692299</v>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -481,7 +481,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab15.xlsx
+++ b/AfDD_2021_Annex_Table_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
